--- a/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>21.1600407945643</v>
+        <v>20.74475436545833</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.37917080595821</v>
+        <v>12.42462920683142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.434089191083597</v>
+        <v>-9.333219004700858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21.75920306768198</v>
+        <v>20.99588742728951</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>15.35012323281228</v>
+        <v>15.04180659169377</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.21548488918841</v>
+        <v>-11.96712299231655</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>23.58616800387983</v>
+        <v>23.52728917413241</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.32399022325022</v>
+        <v>16.49222069431898</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.785918838164875</v>
+        <v>-7.382616281660572</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>35.58433455069064</v>
+        <v>35.50629503057171</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.11669530879305</v>
+        <v>27.26137288170683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.09796432347234</v>
+        <v>3.85051998700561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39.05755056286237</v>
+        <v>38.34103561820338</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>32.51203658455628</v>
+        <v>31.98162307271671</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.337012663979666</v>
+        <v>1.956600034926596</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>34.54434185136703</v>
+        <v>34.69231093090638</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>27.10905147654524</v>
+        <v>27.20328611446912</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.383816638404812</v>
+        <v>1.498481893602052</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.8335855374208945</v>
+        <v>0.7810461498216732</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4596181496014741</v>
+        <v>0.4882124065335353</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3311423552285873</v>
+        <v>-0.3634638759001066</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6945094805749805</v>
+        <v>0.6584348147508238</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4810167369327699</v>
+        <v>0.4841793208212013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3729336963298678</v>
+        <v>-0.3735271583761601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8503709210766666</v>
+        <v>0.8675796535491119</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6080644863695092</v>
+        <v>0.5982564917896336</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2873576641841047</v>
+        <v>-0.286292535005813</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.879654063836331</v>
+        <v>1.855378767641707</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.398863836909976</v>
+        <v>1.491977633424524</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2301124965941437</v>
+        <v>0.2109627627179515</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.73732513448966</v>
+        <v>1.683613749229552</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.42490250170489</v>
+        <v>1.430491056482177</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1139572302359871</v>
+        <v>0.08026314653920269</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.599208120033663</v>
+        <v>1.598977598445508</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.2643444832877</v>
+        <v>1.247748661516858</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.0668299942220274</v>
+        <v>0.0688229071976454</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>24.63974472980366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.067909333881143</v>
+        <v>-1.067909333881148</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>32.93212312285117</v>
@@ -869,7 +869,7 @@
         <v>26.32169555981494</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.448383491012157</v>
+        <v>-5.448383491012154</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>29.53827532917787</v>
@@ -878,7 +878,7 @@
         <v>25.45191597579253</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.453571832031133</v>
+        <v>-3.453571832031138</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.91444293646671</v>
+        <v>19.87985094572684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.95576496511293</v>
+        <v>16.25598729465374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.02484028803295</v>
+        <v>-8.719710989861332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25.29751043687265</v>
+        <v>24.80773510597392</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>18.30795259545055</v>
+        <v>18.82365503835349</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-12.27075073667335</v>
+        <v>-11.92680131031582</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>23.59400257742695</v>
+        <v>24.16786425656266</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>19.78831304206649</v>
+        <v>19.91838939118469</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.003187612698563</v>
+        <v>-9.041293253948943</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>35.11625188201556</v>
+        <v>35.34576091249538</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>32.32825372822487</v>
+        <v>32.56227037846516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.071018260649959</v>
+        <v>5.69757217851145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40.66734351468463</v>
+        <v>40.55667692746282</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>33.97565187286161</v>
+        <v>34.52954377078309</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.321479993139097</v>
+        <v>1.553396160395532</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>35.46273963442484</v>
+        <v>35.46584729510462</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>30.64435673747737</v>
+        <v>31.10332073769207</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.677267215385904</v>
+        <v>1.619969087688375</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.116565071857273</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04839296328747118</v>
+        <v>-0.04839296328747143</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.097508723188789</v>
@@ -974,7 +974,7 @@
         <v>0.8772070473030421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1815749439037664</v>
+        <v>-0.1815749439037663</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.125595913941864</v>
@@ -983,7 +983,7 @@
         <v>0.9698796664693794</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1316030235116356</v>
+        <v>-0.1316030235116358</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.6985348447676771</v>
+        <v>0.754145470424787</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5797328407368009</v>
+        <v>0.6035078228057957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3139380855874794</v>
+        <v>-0.3382564936956832</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7287987045918215</v>
+        <v>0.7328441968205203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5414272161007924</v>
+        <v>0.5457667166407434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3721428052443412</v>
+        <v>-0.3547548388777395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7947739327362426</v>
+        <v>0.826983496017877</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6655034857150298</v>
+        <v>0.6768734565811101</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2749808344565459</v>
+        <v>-0.3123499376721517</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.987271614862472</v>
+        <v>1.976123938260508</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.787338384483106</v>
+        <v>1.815124497793997</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3490774854883995</v>
+        <v>0.3070990671065508</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.601065379069908</v>
+        <v>1.583183333110683</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.309074227075177</v>
+        <v>1.342369191937649</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05363319939883272</v>
+        <v>0.05736728222167441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.509962291033235</v>
+        <v>1.538261512065941</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.311195111316368</v>
+        <v>1.364756534515122</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07532773913114738</v>
+        <v>0.07015518336974826</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>18.63333332395612</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.239586291470555</v>
+        <v>2.239586291470561</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.12725570936657</v>
+        <v>21.88796433063815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.61620500312181</v>
+        <v>13.52159100243579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.010917773551505</v>
+        <v>-1.515017628191792</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.19406863794979</v>
+        <v>13.03670440654779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.824261380832757</v>
+        <v>3.312701961897396</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.08627781659298</v>
+        <v>-14.94057884861994</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>21.94278505415998</v>
+        <v>22.00305294647921</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.3041536038438</v>
+        <v>13.05685484063005</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.137119483083623</v>
+        <v>-2.657522619597951</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>34.54430369014995</v>
+        <v>34.47719065932223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.97657593889403</v>
+        <v>26.3149497577363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.92968436544958</v>
+        <v>10.920018854076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33.35042455015317</v>
+        <v>33.47098311084392</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.14445277063733</v>
+        <v>27.52454719132399</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.828813944220218</v>
+        <v>3.39216718766755</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>32.81550971560402</v>
+        <v>32.53007339639572</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>24.07954513146933</v>
+        <v>24.19901757379317</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.745824483885831</v>
+        <v>7.730516892930625</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.760107559468426</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.09135920238382764</v>
+        <v>0.09135920238382786</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.8122857766891657</v>
+        <v>0.83640305742955</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5226629443444458</v>
+        <v>0.5164487295113261</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04584213268301928</v>
+        <v>-0.06060810709423471</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3594722701793169</v>
+        <v>0.3668807448149231</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07215634701429573</v>
+        <v>0.07453705722644748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4378962850904338</v>
+        <v>-0.4298743980178534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7909287939408748</v>
+        <v>0.7957444660287791</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4718295416190922</v>
+        <v>0.4775454374589779</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.11661590878343</v>
+        <v>-0.101457018728107</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.755346076349269</v>
+        <v>1.772507342835196</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.365369402135106</v>
+        <v>1.346288000454703</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5825038587487992</v>
+        <v>0.5533294208840239</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.435893886133236</v>
+        <v>1.465225511821961</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.087953575370925</v>
+        <v>1.119818864041165</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1784648136388773</v>
+        <v>0.1474496802991174</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.530275226201535</v>
+        <v>1.535297901335874</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.094573987107637</v>
+        <v>1.107640936484913</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3547330734421409</v>
+        <v>0.3507000243368267</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>28.63316719664797</v>
+        <v>28.61795487291165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.7326770134947</v>
+        <v>13.64453430887055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3640307408408965</v>
+        <v>0.219088525389756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29.44290927791507</v>
+        <v>29.5858418522326</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>22.05795422748175</v>
+        <v>21.8740236551401</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.146373367005713</v>
+        <v>-7.756167281201347</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>30.47796127932608</v>
+        <v>29.9638556850956</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.68378954904506</v>
+        <v>18.55383978546126</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.476628711274153</v>
+        <v>-1.361461297667418</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>36.72364073354461</v>
+        <v>36.96563267158673</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.7341200975369</v>
+        <v>21.63136656375007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.619418723752101</v>
+        <v>8.897275184906764</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40.06847614145567</v>
+        <v>40.4101625417066</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>32.84660490615291</v>
+        <v>32.4808446984795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.090475529323289</v>
+        <v>1.679289439393575</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>37.08843323044934</v>
+        <v>36.65395354751932</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>25.4279451786599</v>
+        <v>25.11616645658249</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.665087899625826</v>
+        <v>4.71220074432547</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.198601743670781</v>
+        <v>1.175867006441973</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5664376923601399</v>
+        <v>0.5698227570043382</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0194780327906741</v>
+        <v>0.01000115160559567</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.022903324669004</v>
+        <v>1.018379521906424</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.749239228636661</v>
+        <v>0.758241312094455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2514132962182192</v>
+        <v>-0.2665666154659713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.187445940958811</v>
+        <v>1.17782223254623</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7423957818174648</v>
+        <v>0.7318115798786482</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0603786173561963</v>
+        <v>-0.05382016410164233</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.84261721141292</v>
+        <v>1.874964303199282</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.082852038869805</v>
+        <v>1.101599795172705</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4319618148889354</v>
+        <v>0.4513034535265676</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.740781174154855</v>
+        <v>1.75849626064849</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.402939842083859</v>
+        <v>1.389410255514012</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09132611345621172</v>
+        <v>0.0740338058724884</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.695180943984095</v>
+        <v>1.662778834467782</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.150336267675126</v>
+        <v>1.13195080873741</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.210415187848376</v>
+        <v>0.2149627711395845</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>21.02851257910559</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.23417622367207</v>
+        <v>-1.234176223672068</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>31.3236699847909</v>
@@ -1520,7 +1520,7 @@
         <v>20.43390250981178</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.155780161798452</v>
+        <v>3.155780161798458</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.3593389711149</v>
+        <v>22.28913801745528</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>14.29449908249941</v>
+        <v>13.10027366444623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.705438261235617</v>
+        <v>-7.888773061549649</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25.69664175146994</v>
+        <v>26.03159520456014</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>14.67104570777096</v>
+        <v>15.02196111871673</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.02691967969711</v>
+        <v>0.5259953564256711</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>26.22515592158659</v>
+        <v>26.24932663019784</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>15.63260501513867</v>
+        <v>15.84490333811461</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.186058555184875</v>
+        <v>-0.8699998334717782</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>37.08639940108628</v>
+        <v>36.70743602047437</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>28.22381785324255</v>
+        <v>27.57522877121844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.515429598637136</v>
+        <v>5.286051195317622</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36.4884976031605</v>
+        <v>36.61687575174588</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>25.50991670094125</v>
+        <v>25.79603520482404</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.55733797990909</v>
+        <v>10.62406383331131</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>34.93542755536178</v>
+        <v>34.84728755629726</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>24.74523594086461</v>
+        <v>24.60244215947505</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.92414922955771</v>
+        <v>7.278536921566328</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.945983576813318</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.05552035285878108</v>
+        <v>-0.05552035285878095</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.217524476525579</v>
@@ -1625,7 +1625,7 @@
         <v>0.8338113811454441</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.128772534469961</v>
+        <v>0.1287725344699612</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.8438167227080734</v>
+        <v>0.8214456934929721</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5260897162832388</v>
+        <v>0.4839033660960759</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.301292708155089</v>
+        <v>-0.2999198271918011</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.8742670670251004</v>
+        <v>0.8928824688571508</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5092215411767443</v>
+        <v>0.5086009245268749</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03556616402869472</v>
+        <v>0.01642781548484363</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9678149842524747</v>
+        <v>0.9520724995883261</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.5926030434683189</v>
+        <v>0.5775869985539145</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04488502260892711</v>
+        <v>-0.0376186067443559</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.092370944620981</v>
+        <v>2.022705319220182</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.576015157163657</v>
+        <v>1.494262142675982</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3149004114368339</v>
+        <v>0.2913724307200919</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.588690440048198</v>
+        <v>1.643957640125322</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.138807692969215</v>
+        <v>1.13680132661627</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4734605690234225</v>
+        <v>0.4795096994364441</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.614634542131258</v>
+        <v>1.575893222779322</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.130984198483209</v>
+        <v>1.137997142758861</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3121166566531348</v>
+        <v>0.3215326454195493</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>20.71687362094076</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6.863649296577179</v>
+        <v>6.863649296577187</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>19.4264992325416</v>
@@ -1725,7 +1725,7 @@
         <v>13.72917028071033</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.66479817283766</v>
+        <v>9.664798172837655</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>20.71951209335313</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>20.14408850249692</v>
+        <v>19.52144180899514</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>9.790110830134219</v>
+        <v>9.779942017138909</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.383196167137931</v>
+        <v>-5.522342815672503</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14.6192509012847</v>
+        <v>15.30043872106942</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>9.626491437688648</v>
+        <v>9.230587432674714</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.29025112873395</v>
+        <v>5.618683012461974</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>16.45817111490567</v>
+        <v>16.59730112881342</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>11.05159691597042</v>
+        <v>10.50946078965345</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.983084257601281</v>
+        <v>4.949586467218102</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>40.20772118375787</v>
+        <v>40.30127108912429</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>31.35279335797975</v>
+        <v>29.74150975186002</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21.88894933202377</v>
+        <v>20.35097944781119</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23.36023277579462</v>
+        <v>23.64467893471985</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>18.35175866886316</v>
+        <v>17.72667049615227</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.99109517958806</v>
+        <v>13.76774910023828</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>24.57742741663691</v>
+        <v>24.16717519373652</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>18.52312994261381</v>
+        <v>18.76862065808893</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.04402356028367</v>
+        <v>13.15240076316147</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>1.227896383829712</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.4068109071546169</v>
+        <v>0.4068109071546174</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.7868384526086488</v>
@@ -1830,7 +1830,7 @@
         <v>0.5560774985736554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3914567801465667</v>
+        <v>0.3914567801465664</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.8721168096556455</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.9297961567709354</v>
+        <v>0.8616101187308887</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4084799857985801</v>
+        <v>0.4516873915964359</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2695127355461465</v>
+        <v>-0.2801032242148818</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.5560350179171432</v>
+        <v>0.5859432078710622</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3587438953157546</v>
+        <v>0.3471675663173219</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2024674908182323</v>
+        <v>0.2150843589914838</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6332277138489633</v>
+        <v>0.6500938596114262</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.4416027273278374</v>
+        <v>0.4043422707328497</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1943842923298189</v>
+        <v>0.1916273704753643</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.557522371336827</v>
+        <v>3.209504725586547</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.719096240710053</v>
+        <v>2.50923142788767</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.621460043641096</v>
+        <v>1.513252268415871</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.027177354041755</v>
+        <v>1.029941325215118</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7979948311963692</v>
+        <v>0.7787518609327256</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6129532637977898</v>
+        <v>0.593079916275184</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.109524602169454</v>
+        <v>1.093687001552425</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8449510204605067</v>
+        <v>0.8337028708834178</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5835539770568969</v>
+        <v>0.5848772040079836</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>19.77254866244024</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.021436096648357</v>
+        <v>2.021436096648352</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>28.00716238227919</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>27.39561565447573</v>
+        <v>27.25255250904201</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>17.28858691689021</v>
+        <v>17.10384984430648</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.436409939831458</v>
+        <v>-0.6963375127090877</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25.5506836012286</v>
+        <v>25.47108360835073</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>18.15803955285244</v>
+        <v>18.14770255506566</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.4562306637552119</v>
+        <v>-0.3919169347017388</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>27.25459677105532</v>
+        <v>27.06002158445974</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>18.50190518030765</v>
+        <v>18.47004470144742</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.1738240388365084</v>
+        <v>0.1999677428620572</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>32.37586525662339</v>
+        <v>32.32671868622514</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.41309424601852</v>
+        <v>22.16030731373186</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.580803349918103</v>
+        <v>4.333693431680852</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30.36418944941783</v>
+        <v>30.41153317497674</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>23.20471323667668</v>
+        <v>23.03824192506686</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.932906520417766</v>
+        <v>3.888996111277602</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>30.77597603439139</v>
+        <v>30.71646339691318</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>22.01186280978048</v>
+        <v>22.04974342454585</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.693350309626483</v>
+        <v>3.55038914253588</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.9041842731248192</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.09243880285338463</v>
+        <v>0.09243880285338436</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>1.070563491840442</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>1.184062159557091</v>
+        <v>1.181628839332224</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.7443683203292235</v>
+        <v>0.7402718661709552</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.01896907616062964</v>
+        <v>-0.0305152590801798</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.9341753132392467</v>
+        <v>0.9335519476953812</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.66640387918664</v>
+        <v>0.6563218663291385</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.01671159629404331</v>
+        <v>-0.01422018172036465</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>1.084721247868838</v>
+        <v>1.07915031891874</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.7367205858249654</v>
+        <v>0.7365597063492871</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.005272259523310631</v>
+        <v>0.008292321837866127</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.574429359402305</v>
+        <v>1.583828811344508</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.089357598754738</v>
+        <v>1.070382407872515</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2241060545319838</v>
+        <v>0.2065700074172939</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.225467910845358</v>
+        <v>1.220308435291538</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9346981394980861</v>
+        <v>0.9200466985885551</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1599643541793379</v>
+        <v>0.1575300727639574</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.332773954353627</v>
+        <v>1.322392591592467</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9438926273254266</v>
+        <v>0.9540704884703025</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1556170158089064</v>
+        <v>0.1522737910217802</v>
       </c>
     </row>
     <row r="46">
